--- a/Dados_Selecionados_Aleatoriamente_geocoded.xlsx
+++ b/Dados_Selecionados_Aleatoriamente_geocoded.xlsx
@@ -1028,10 +1028,10 @@
         <v>103</v>
       </c>
       <c r="E9">
-        <v>-3.6935372</v>
+        <v>-3.7975778</v>
       </c>
       <c r="F9">
-        <v>-38.6187567</v>
+        <v>-38.6009302</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1048,10 +1048,10 @@
         <v>104</v>
       </c>
       <c r="E10">
-        <v>-3.7876613</v>
+        <v>-3.7789492</v>
       </c>
       <c r="F10">
-        <v>-38.4592776</v>
+        <v>-38.5134976</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1108,10 +1108,10 @@
         <v>107</v>
       </c>
       <c r="E13">
-        <v>-3.7260507</v>
+        <v>-3.7227049</v>
       </c>
       <c r="F13">
-        <v>-38.5590938</v>
+        <v>-38.559962</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1128,10 +1128,10 @@
         <v>108</v>
       </c>
       <c r="E14">
-        <v>-3.8073629</v>
+        <v>-3.8158701</v>
       </c>
       <c r="F14">
-        <v>-38.4951411</v>
+        <v>-38.5161505</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1188,10 +1188,10 @@
         <v>111</v>
       </c>
       <c r="E17">
-        <v>-3.7484472</v>
+        <v>-3.7478402</v>
       </c>
       <c r="F17">
-        <v>-38.5244385</v>
+        <v>-38.5268293</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1328,10 +1328,10 @@
         <v>117</v>
       </c>
       <c r="E24">
-        <v>-3.7104741</v>
+        <v>-3.8268145</v>
       </c>
       <c r="F24">
-        <v>-38.6562306</v>
+        <v>-38.4930304</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1368,10 +1368,10 @@
         <v>119</v>
       </c>
       <c r="E26">
-        <v>-3.7482735</v>
+        <v>-3.7347879</v>
       </c>
       <c r="F26">
-        <v>-38.6558088</v>
+        <v>-38.6164518</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1388,10 +1388,10 @@
         <v>120</v>
       </c>
       <c r="E27">
-        <v>-3.79176</v>
+        <v>-3.7699017</v>
       </c>
       <c r="F27">
-        <v>-38.5885268</v>
+        <v>-38.5452348</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1588,10 +1588,10 @@
         <v>130</v>
       </c>
       <c r="E37">
-        <v>-3.7838844</v>
+        <v>-3.7855292</v>
       </c>
       <c r="F37">
-        <v>-38.4958546</v>
+        <v>-38.5409343</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1668,10 +1668,10 @@
         <v>134</v>
       </c>
       <c r="E41">
-        <v>-3.8817909</v>
+        <v>-3.7918061</v>
       </c>
       <c r="F41">
-        <v>-38.5148569</v>
+        <v>-38.5014288</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1728,10 +1728,10 @@
         <v>136</v>
       </c>
       <c r="E44">
-        <v>-3.7708965</v>
+        <v>-3.7671322</v>
       </c>
       <c r="F44">
-        <v>-38.5291912</v>
+        <v>-38.5251907</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1968,10 +1968,10 @@
         <v>146</v>
       </c>
       <c r="E56">
-        <v>-3.8296907</v>
+        <v>-3.7218045</v>
       </c>
       <c r="F56">
-        <v>-38.4594409</v>
+        <v>-38.5647855</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1988,10 +1988,10 @@
         <v>123</v>
       </c>
       <c r="E57">
-        <v>-3.788747</v>
+        <v>-3.7907563</v>
       </c>
       <c r="F57">
-        <v>-38.4769458</v>
+        <v>-38.4769362</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2068,10 +2068,10 @@
         <v>136</v>
       </c>
       <c r="E61">
-        <v>-3.7708965</v>
+        <v>-3.7671322</v>
       </c>
       <c r="F61">
-        <v>-38.5291912</v>
+        <v>-38.5251907</v>
       </c>
     </row>
     <row r="62" spans="1:6">
